--- a/results/TAROTVariants.xlsx
+++ b/results/TAROTVariants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominik\Projects\Paper\2023\icse-2024\ReplicationPackageICSE24\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCD2A63-6F38-4AD7-86F6-AD8A95183E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85B50D3-13F8-4274-8426-22FB0009E728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="4755" windowWidth="28740" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1310" yWindow="2110" windowWidth="28780" windowHeight="15370" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAD-Code" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -129,13 +129,25 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -187,18 +199,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -513,12 +528,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="20.81640625" customWidth="1"/>
     <col min="2" max="2" width="13.7265625" customWidth="1"/>
     <col min="3" max="3" width="9.08984375" customWidth="1"/>
     <col min="4" max="5" width="8.08984375" customWidth="1"/>
@@ -935,7 +951,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" s="6" t="s">
         <v>21</v>
       </c>
     </row>

--- a/results/TAROTVariants.xlsx
+++ b/results/TAROTVariants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominik\Projects\Paper\2023\icse-2024\ReplicationPackageICSE24\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85B50D3-13F8-4274-8426-22FB0009E728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BB4A45-2FD7-4F5D-AEDD-3543F1AD5647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1310" yWindow="2110" windowWidth="28780" windowHeight="15370" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="7140" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAD-Code" sheetId="1" r:id="rId1"/>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -584,13 +584,13 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D4">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="E4">
         <v>0.1</v>
       </c>
       <c r="F4">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="G4">
         <v>0.93</v>
@@ -701,7 +701,7 @@
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>0.44600000000000001</v>
+        <v>0.44400000000000006</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
@@ -709,7 +709,7 @@
       </c>
       <c r="F9" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.748</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
@@ -726,27 +726,27 @@
       </c>
       <c r="C10" s="4">
         <f>(C6*Projects!$C$6+C8*Projects!$C$8+C7*Projects!$C$7+C4*Projects!$C$4+C5*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.18652278177458034</v>
+        <v>0.18537743663371803</v>
       </c>
       <c r="D10" s="4">
         <f>(D6*Projects!$C$6+D8*Projects!$C$8+D7*Projects!$C$7+D4*Projects!$C$4+D5*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.62731414868105517</v>
+        <v>0.62220221989066204</v>
       </c>
       <c r="E10" s="4">
         <f>(E6*Projects!$C$6+E8*Projects!$C$8+E7*Projects!$C$7+E4*Projects!$C$4+E5*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.28656014723105233</v>
+        <v>0.28472637914848969</v>
       </c>
       <c r="F10" s="4">
         <f>(F6*Projects!$C$6+F8*Projects!$C$8+F7*Projects!$C$7+F4*Projects!$C$4+F5*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.57576599185767663</v>
+        <v>0.57823789276050575</v>
       </c>
       <c r="G10" s="4">
         <f>(G6*Projects!$C$6+G8*Projects!$C$8+G7*Projects!$C$7+G4*Projects!$C$4+G5*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.444363393006525</v>
+        <v>0.44913689325749628</v>
       </c>
       <c r="H10" s="4">
         <f>(H6*Projects!$C$6+H8*Projects!$C$8+H7*Projects!$C$7+H4*Projects!$C$4+H5*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>5.7526072165523398E-2</v>
+        <v>5.764868297531614E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -791,7 +791,7 @@
         <v>0.09</v>
       </c>
       <c r="F15">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="G15">
         <v>0.93</v>
@@ -910,7 +910,7 @@
       </c>
       <c r="F20" s="4">
         <f t="shared" ref="F20" si="4">SUM(F15:F19)/COUNT(F15:F19)</f>
-        <v>0.74399999999999999</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" ref="G20" si="5">SUM(G15:G19)/COUNT(G15:G19)</f>
@@ -927,27 +927,27 @@
       </c>
       <c r="C21" s="4">
         <f>(C17*Projects!$C$6+C19*Projects!$C$8+C18*Projects!$C$7+C15*Projects!$C$4+C16*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.18425129663710893</v>
+        <v>0.18302998509028662</v>
       </c>
       <c r="D21" s="4">
         <f>(D17*Projects!$C$6+D19*Projects!$C$8+D18*Projects!$C$7+D15*Projects!$C$4+D16*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.62019630806982318</v>
+        <v>0.61577116350985694</v>
       </c>
       <c r="E21" s="4">
         <f>(E17*Projects!$C$6+E19*Projects!$C$8+E18*Projects!$C$7+E15*Projects!$C$4+E16*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.28471083598237684</v>
+        <v>0.28279695179192665</v>
       </c>
       <c r="F21" s="4">
         <f>(F17*Projects!$C$6+F19*Projects!$C$8+F18*Projects!$C$7+F15*Projects!$C$4+F16*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.57806703474429755</v>
+        <v>0.58051631785300128</v>
       </c>
       <c r="G21" s="4">
         <f>(G17*Projects!$C$6+G19*Projects!$C$8+G18*Projects!$C$7+G15*Projects!$C$4+G16*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.44627014667335901</v>
+        <v>0.45102490474349777</v>
       </c>
       <c r="H21" s="4">
         <f>(H17*Projects!$C$6+H19*Projects!$C$8+H18*Projects!$C$7+H15*Projects!$C$4+H16*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>5.1826445820088114E-2</v>
+        <v>5.1906786680656028E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -983,19 +983,19 @@
         <v>7</v>
       </c>
       <c r="C26">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D26">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="E26">
         <v>0.1</v>
       </c>
       <c r="F26">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="G26">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="H26">
         <v>7.0000000000000007E-2</v>
@@ -1099,11 +1099,11 @@
       </c>
       <c r="C31" s="4">
         <f t="shared" ref="C31" si="7">SUM(C26:C30)/COUNT(C26:C30)</f>
-        <v>0.14399999999999999</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" ref="D31" si="8">SUM(D26:D30)/COUNT(D26:D30)</f>
-        <v>0.438</v>
+        <v>0.43600000000000005</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" ref="E31" si="9">SUM(E26:E30)/COUNT(E26:E30)</f>
@@ -1111,11 +1111,11 @@
       </c>
       <c r="F31" s="4">
         <f t="shared" ref="F31" si="10">SUM(F26:F30)/COUNT(F26:F30)</f>
-        <v>0.74999999999999989</v>
+        <v>0.752</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" ref="G31" si="11">SUM(G26:G30)/COUNT(G26:G30)</f>
-        <v>0.70399999999999996</v>
+        <v>0.70600000000000007</v>
       </c>
       <c r="H31" s="4">
         <f t="shared" ref="H31" si="12">SUM(H26:H30)/COUNT(H26:H30)</f>
@@ -1128,27 +1128,27 @@
       </c>
       <c r="C32" s="4">
         <f>(C28*Projects!$C$6+C30*Projects!$C$8+C29*Projects!$C$7+C26*Projects!$C$4+C27*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.18509564441470081</v>
+        <v>0.18467944116185323</v>
       </c>
       <c r="D32" s="4">
         <f>(D28*Projects!$C$6+D30*Projects!$C$8+D29*Projects!$C$7+D26*Projects!$C$4+D27*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.62866822820813117</v>
+        <v>0.62354298967364297</v>
       </c>
       <c r="E32" s="4">
         <f>(E28*Projects!$C$6+E30*Projects!$C$8+E29*Projects!$C$7+E26*Projects!$C$4+E27*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.28624951201829235</v>
+        <v>0.28441879728311886</v>
       </c>
       <c r="F32" s="4">
         <f>(F28*Projects!$C$6+F30*Projects!$C$8+F29*Projects!$C$7+F26*Projects!$C$4+F27*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.57433885449779709</v>
+        <v>0.57835330498647075</v>
       </c>
       <c r="G32" s="4">
         <f>(G28*Projects!$C$6+G30*Projects!$C$8+G29*Projects!$C$7+G26*Projects!$C$4+G27*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.4425419664268585</v>
+        <v>0.44804848417913745</v>
       </c>
       <c r="H32" s="4">
         <f>(H28*Projects!$C$6+H30*Projects!$C$8+H29*Projects!$C$7+H26*Projects!$C$4+H27*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>5.7553956834532377E-2</v>
+        <v>5.7676293555690546E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -1187,7 +1187,7 @@
         <v>0.06</v>
       </c>
       <c r="D37">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="E37">
         <v>0.09</v>
@@ -1199,7 +1199,7 @@
         <v>0.92</v>
       </c>
       <c r="H37">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="D42" s="4">
         <f t="shared" ref="D42" si="14">SUM(D37:D41)/COUNT(D37:D41)</f>
-        <v>0.42000000000000004</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="E42" s="4">
         <f t="shared" ref="E42" si="15">SUM(E37:E41)/COUNT(E37:E41)</f>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="H42" s="4">
         <f t="shared" ref="H42" si="18">SUM(H37:H41)/COUNT(H37:H41)</f>
-        <v>9.8000000000000004E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
@@ -1329,27 +1329,27 @@
       </c>
       <c r="C43" s="4">
         <f>(C39*Projects!$C$6+C41*Projects!$C$8+C40*Projects!$C$7+C37*Projects!$C$4+C38*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.19285204394623837</v>
+        <v>0.19154619250096638</v>
       </c>
       <c r="D43" s="4">
         <f>(D39*Projects!$C$6+D41*Projects!$C$8+D40*Projects!$C$7+D37*Projects!$C$4+D38*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.58981094194411909</v>
+        <v>0.5848710585896516</v>
       </c>
       <c r="E43" s="4">
         <f>(E39*Projects!$C$6+E41*Projects!$C$8+E40*Projects!$C$7+E37*Projects!$C$4+E38*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.28903909430595059</v>
+        <v>0.28708266607764094</v>
       </c>
       <c r="F43" s="4">
         <f>(F39*Projects!$C$6+F41*Projects!$C$8+F40*Projects!$C$7+F37*Projects!$C$4+F38*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.60714070603981929</v>
+        <v>0.61001932740626208</v>
       </c>
       <c r="G43" s="4">
         <f>(G39*Projects!$C$6+G41*Projects!$C$8+G40*Projects!$C$7+G37*Projects!$C$4+G38*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.47958842228542747</v>
+        <v>0.48391738914351978</v>
       </c>
       <c r="H43" s="4">
         <f>(H39*Projects!$C$6+H41*Projects!$C$8+H40*Projects!$C$7+H37*Projects!$C$4+H38*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>6.034353912219062E-2</v>
+        <v>5.9526754652382795E-2</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
@@ -1400,7 +1400,7 @@
         <v>0.94</v>
       </c>
       <c r="H48">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H53" s="4">
         <f t="shared" ref="H53" si="24">SUM(H48:H52)/COUNT(H48:H52)</f>
-        <v>0.10400000000000001</v>
+        <v>0.10200000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
@@ -1530,27 +1530,27 @@
       </c>
       <c r="C54" s="4">
         <f>(C50*Projects!$C$6+C52*Projects!$C$8+C51*Projects!$C$7+C48*Projects!$C$4+C49*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.19897384418046959</v>
+        <v>0.19770611298249491</v>
       </c>
       <c r="D54" s="4">
         <f>(D50*Projects!$C$6+D52*Projects!$C$8+D51*Projects!$C$7+D48*Projects!$C$4+D49*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.57439406614243482</v>
+        <v>0.57022254127781768</v>
       </c>
       <c r="E54" s="4">
         <f>(E50*Projects!$C$6+E52*Projects!$C$8+E51*Projects!$C$7+E48*Projects!$C$4+E49*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.29052200100384812</v>
+        <v>0.28864929040808435</v>
       </c>
       <c r="F54" s="4">
         <f>(F50*Projects!$C$6+F52*Projects!$C$8+F51*Projects!$C$7+F48*Projects!$C$4+F49*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.61865149740672587</v>
+        <v>0.62161356231707998</v>
       </c>
       <c r="G54" s="4">
         <f>(G50*Projects!$C$6+G52*Projects!$C$8+G51*Projects!$C$7+G48*Projects!$C$4+G49*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.49109921365233394</v>
+        <v>0.49551162405433768</v>
       </c>
       <c r="H54" s="4">
         <f>(H50*Projects!$C$6+H52*Projects!$C$8+H51*Projects!$C$7+H48*Projects!$C$4+H49*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>6.6071050136634876E-2</v>
+        <v>6.5296261527417312E-2</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
@@ -1731,27 +1731,27 @@
       </c>
       <c r="C65" s="4">
         <f>(C61*Projects!$C$6+C63*Projects!$C$8+C62*Projects!$C$7+C59*Projects!$C$4+C60*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.19392337292956333</v>
+        <v>0.19260699099895079</v>
       </c>
       <c r="D65" s="4">
         <f>(D61*Projects!$C$6+D63*Projects!$C$8+D62*Projects!$C$7+D59*Projects!$C$4+D60*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.57259494729797566</v>
+        <v>0.56873598763045996</v>
       </c>
       <c r="E65" s="4">
         <f>(E61*Projects!$C$6+E63*Projects!$C$8+E62*Projects!$C$7+E59*Projects!$C$4+E60*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.2897161340694886</v>
+        <v>0.2877530509691314</v>
       </c>
       <c r="F65" s="4">
         <f>(F61*Projects!$C$6+F63*Projects!$C$8+F62*Projects!$C$7+F59*Projects!$C$4+F60*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.61672912832524684</v>
+        <v>0.61951350157380314</v>
       </c>
       <c r="G65" s="4">
         <f>(G61*Projects!$C$6+G63*Projects!$C$8+G62*Projects!$C$7+G59*Projects!$C$4+G60*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.49381573810718871</v>
+        <v>0.49800485946214595</v>
       </c>
       <c r="H65" s="4">
         <f>(H61*Projects!$C$6+H63*Projects!$C$8+H62*Projects!$C$7+H59*Projects!$C$4+H60*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>6.1076348223746586E-2</v>
+        <v>6.1065768402451814E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1765,7 +1765,7 @@
   <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1798,13 +1798,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>1295</v>
+        <v>1473</v>
       </c>
       <c r="D4">
         <v>52</v>
       </c>
       <c r="E4">
-        <v>686</v>
+        <v>730</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.35">

--- a/results/TAROTVariants.xlsx
+++ b/results/TAROTVariants.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SAD-Code" sheetId="1" state="visible" r:id="rId2"/>
@@ -328,14 +328,14 @@
   </sheetPr>
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K21" activeCellId="0" sqref="K21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K21" activeCellId="1" sqref="C13:C17 K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="8.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.72"/>
@@ -1572,13 +1572,13 @@
   </sheetPr>
   <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.28"/>
   </cols>
   <sheetData>
@@ -1690,12 +1690,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>47600</v>
+        <v>46495</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>1020</v>
@@ -1704,12 +1704,12 @@
         <v>13440</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>26000</v>
+        <v>25727</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>78</v>
@@ -1718,7 +1718,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
         <v>11</v>
       </c>
@@ -1732,12 +1732,12 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>165330</v>
+        <v>164736</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>1584</v>
@@ -1746,7 +1746,7 @@
         <v>13360</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
         <v>13</v>
       </c>

--- a/results/TAROTVariants.xlsx
+++ b/results/TAROTVariants.xlsx
@@ -329,10 +329,10 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K21" activeCellId="1" sqref="C13:C17 K21"/>
+      <selection pane="topLeft" activeCell="K21" activeCellId="1" sqref="E13:E17 K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.7"/>
@@ -1573,10 +1573,10 @@
   <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13:C17"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.28"/>
@@ -1701,7 +1701,7 @@
         <v>1020</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>13440</v>
+        <v>13128</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1715,7 +1715,7 @@
         <v>78</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>12000</v>
+        <v>11874</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1743,7 +1743,7 @@
         <v>1584</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>13360</v>
+        <v>13312</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
